--- a/uploads/OtrosADM/otrosadm.xlsx
+++ b/uploads/OtrosADM/otrosadm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto26/Proyecto16/Proyecto11/proyecto2/uploads/OtrosADM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/OtrosADM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9B3228-7D28-459B-838A-A58ACD036609}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6950396-373D-4C59-8054-4D4FCE2C078B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id_categoria</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>5x2</t>
+  </si>
+  <si>
+    <t>total_clp</t>
   </si>
 </sst>
 </file>
@@ -112,15 +115,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB23AC4-15AE-4CE8-B090-F8582B9B3BB9}" name="Tabla1" displayName="Tabla1" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{1AB23AC4-15AE-4CE8-B090-F8582B9B3BB9}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AB23AC4-15AE-4CE8-B090-F8582B9B3BB9}" name="Tabla1" displayName="Tabla1" ref="A1:G3" totalsRowShown="0">
+  <autoFilter ref="A1:G3" xr:uid="{1AB23AC4-15AE-4CE8-B090-F8582B9B3BB9}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{6F1AD04D-CD09-4D4E-B979-8A0F9FAD3EF0}" name="id_categoria"/>
     <tableColumn id="2" xr3:uid="{993E81E3-1FF4-478E-B7E5-9DB1ACBF2BA2}" name="dedicacion"/>
     <tableColumn id="3" xr3:uid="{7EB60E46-E19F-41CF-BD03-B0DBAEFA96EB}" name="meses"/>
     <tableColumn id="4" xr3:uid="{DCBB0417-7EC1-4200-A1A2-A6B239E65C98}" name="cantidad"/>
     <tableColumn id="5" xr3:uid="{35D57213-E377-4846-B682-9F79546E8283}" name="turno"/>
     <tableColumn id="6" xr3:uid="{43252964-C3F2-4582-9C03-F69C1FE9F5D1}" name="MB"/>
+    <tableColumn id="7" xr3:uid="{61627DFB-0CF4-4FC0-99A3-8490CAB2ED7C}" name="total_clp"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,9 +404,10 @@
     <col min="1" max="1" width="13.08984375" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.08984375" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +426,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11416</v>
       </c>
@@ -439,10 +447,13 @@
         <v>6</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>20083803</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11417</v>
       </c>
@@ -459,7 +470,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>20083803</v>
       </c>
     </row>
   </sheetData>
